--- a/biology/Médecine/Paul_Tillaux/Paul_Tillaux.xlsx
+++ b/biology/Médecine/Paul_Tillaux/Paul_Tillaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Jules Tillaux, né le 8 décembre 1834 à Aunay-sur-Odon, dans le Calvados, et mort le 20 octobre 1904 à Paris, est un chirurgien et anatomiste français, professeur à Faculté de médecine de Paris, membre et président de l'Académie de médecine.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est élu membre titulaire de l'Académie de médecine le 8 avril 1879 et son président en 1904[1].
-Il est inhumé au Père-Lachaise (92e division)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est élu membre titulaire de l'Académie de médecine le 8 avril 1879 et son président en 1904.
+Il est inhumé au Père-Lachaise (92e division).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1892 Tillaux donna la première description d'une fracture complexe rare du tibia, la fracture de Salter-Harris de type III[3]. Il découvrit par la pratique de l'autopsie que des contraintes exercées sur le ligament tibio-fibulaire antérieur pouvaient entraîner ce type de fracture par avulsion. Tillaux a laissé son nom à cette fracture, qui est unique en son genre parce qu'elle survient durant une période précise de l'adolescence, où le taux de croissance de l'épiphyse se met à diverger. La fracture de Tillaux est parfois méconnue et confondue avec une simple entorse.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1892 Tillaux donna la première description d'une fracture complexe rare du tibia, la fracture de Salter-Harris de type III. Il découvrit par la pratique de l'autopsie que des contraintes exercées sur le ligament tibio-fibulaire antérieur pouvaient entraîner ce type de fracture par avulsion. Tillaux a laissé son nom à cette fracture, qui est unique en son genre parce qu'elle survient durant une période précise de l'adolescence, où le taux de croissance de l'épiphyse se met à diverger. La fracture de Tillaux est parfois méconnue et confondue avec une simple entorse.
 Tillaux a également travaillé sur l'infection et sur la vaccination contre la rage avec Pasteur.
 Pour ses travaux il reçut le prix Montyon en 1890.
 </t>
@@ -576,9 +592,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Manœuvre de Tillaux[4]: recherche, par adduction contrariée du bras, de la fixité d'une tumeur du sein, signant son adhérence à la paroi.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Manœuvre de Tillaux: recherche, par adduction contrariée du bras, de la fixité d'une tumeur du sein, signant son adhérence à la paroi.
 Signe de Tillaux: sensation de touche de piano à la palpation du poignet en cas de lésion du poignet.
 « Aïe crépitant » de Tillaux  : douleur et crépitation au-dessus de l'apophyse styloïde radiale lors des mouvements du poignet, signant la ténosynovite de De Quervain.
 Tubercule de Tillaux-Chaput
@@ -612,7 +630,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Des conduits excréteurs des glandes sublinguale et lacrymale. Du rôle des sinus de la face, [Thèse de médecine de Paris n° 20, 4 février 1862], Rignoux (Paris), 1862, Texte intégral.
 De l'urétrotomie, [Concours pour l'agrégation, Faculté de médecine de Paris], impr. Remquet, Goupy et Cie : librairie Asselin (Paris), 1863, In-4°, 158 p.
